--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2E9BDA-73BF-4D3A-88D1-BF9F66F368DB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Basic Question Simple Looping Techniques</t>
+  </si>
+  <si>
+    <t>26/6/25</t>
+  </si>
+  <si>
+    <t>Move Zeros to End</t>
+  </si>
+  <si>
+    <t>swapping and logic thing</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,10 +149,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -469,7 +474,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,10 +518,10 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -525,7 +530,6 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -534,84 +538,44 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D2E9BDA-73BF-4D3A-88D1-BF9F66F368DB}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E543ED3F-4F84-4652-AB0B-448FACD8831E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>swapping and logic thing</t>
+  </si>
+  <si>
+    <t>just redo there is use of Moore's Voting Algorithm</t>
+  </si>
+  <si>
+    <t>27/6/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Majority Element </t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +493,7 @@
     <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" customWidth="1"/>
     <col min="7" max="7" width="86.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -556,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>283</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
@@ -569,6 +578,26 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>169</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E543ED3F-4F84-4652-AB0B-448FACD8831E}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBFCD21-37A6-47EC-BC25-256B200BC5AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -42,9 +42,6 @@
     <t>Need Redo</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Easy</t>
   </si>
   <si>
@@ -88,6 +85,21 @@
   </si>
   <si>
     <t xml:space="preserve">Majority Element </t>
+  </si>
+  <si>
+    <t>28/6/25</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reversing concept used define another method and reverse in it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes redo good for interviews </t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,6 +182,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +507,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,7 +516,7 @@
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" customWidth="1"/>
+    <col min="5" max="5" width="56.88671875" customWidth="1"/>
     <col min="6" max="6" width="66.6640625" customWidth="1"/>
     <col min="7" max="7" width="86.88671875" customWidth="1"/>
   </cols>
@@ -502,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -516,88 +540,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G1" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>283</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>169</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
+      <c r="B7" s="3">
+        <v>189</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{C6F12108-1001-46C8-AAFB-CD362A9E7A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBFCD21-37A6-47EC-BC25-256B200BC5AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">yes redo good for interviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Palindrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two pointer technique used </t>
+  </si>
+  <si>
+    <t>29/6/25</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +516,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +651,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>125</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97505A93-D88B-45D8-B6A2-8F64EE6E9942}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>29/6/25</t>
+  </si>
+  <si>
+    <t>30/6/25</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Divide and Conqueror Technique</t>
   </si>
 </sst>
 </file>
@@ -516,7 +525,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,6 +680,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97505A93-D88B-45D8-B6A2-8F64EE6E9942}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797A6B15-4A31-40E0-A8BC-4014522B8154}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Divide and Conqueror Technique</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted array</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,7 +531,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,6 +706,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>45664</v>
+      </c>
+      <c r="B10" s="3">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797A6B15-4A31-40E0-A8BC-4014522B8154}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F27EF06-F6C1-4C5F-B238-AF3CCFB13049}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Remove duplicates from sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorting takes place </t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +732,26 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>45695</v>
+      </c>
+      <c r="B11" s="3">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F27EF06-F6C1-4C5F-B238-AF3CCFB13049}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4664A09-15D9-45C0-8043-3D545C448354}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sorting takes place </t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes redo good for interviews - asked in google and facebook </t>
   </si>
 </sst>
 </file>
@@ -536,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,7 +762,24 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="8">
+        <v>45723</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{50C28FAF-262C-4C06-8711-6FE3DCF22D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4664A09-15D9-45C0-8043-3D545C448354}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB93396-4CF0-4D9E-9BFF-A92085D4F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t xml:space="preserve">yes redo good for interviews - asked in google and facebook </t>
+  </si>
+  <si>
+    <t>Optimal Solution using Hashmap (Prefix Sum Frequency)</t>
+  </si>
+  <si>
+    <t>Sub array Sum Equals K</t>
   </si>
 </sst>
 </file>
@@ -203,13 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,210 +582,227 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>121</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>283</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>169</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>189</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>125</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>45664</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>45695</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>56</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>45723</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7">
+        <v>45754</v>
+      </c>
+      <c r="B13" s="2">
+        <v>560</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB93396-4CF0-4D9E-9BFF-A92085D4F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4BB93396-4CF0-4D9E-9BFF-A92085D4F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFB11F5-4102-4808-A8CF-D9BBFE832B18}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -138,10 +138,10 @@
     <t xml:space="preserve">yes redo good for interviews - asked in google and facebook </t>
   </si>
   <si>
-    <t>Optimal Solution using Hashmap (Prefix Sum Frequency)</t>
-  </si>
-  <si>
     <t>Sub array Sum Equals K</t>
+  </si>
+  <si>
+    <t>Optimal Solution using Hashmap (Prefix Sum Concept)</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,13 +792,13 @@
         <v>560</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4BB93396-4CF0-4D9E-9BFF-A92085D4F791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFB11F5-4102-4808-A8CF-D9BBFE832B18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04739DD1-4F04-4814-B9DB-9AEAAF8001F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Optimal Solution using Hashmap (Prefix Sum Concept)</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Optimal Solution using Kadane’s Algorithm practice this</t>
+  </si>
+  <si>
+    <t>yes redo good for interviews</t>
   </si>
 </sst>
 </file>
@@ -546,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -802,6 +811,26 @@
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>45784</v>
+      </c>
+      <c r="B14" s="2">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04739DD1-4F04-4814-B9DB-9AEAAF8001F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773873A-96F4-49C9-8EF8-2AFABAE87B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>yes redo good for interviews</t>
+  </si>
+  <si>
+    <t>Find all Duplicates in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Solution is iteration and logic </t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
@@ -833,6 +839,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>45815</v>
+      </c>
+      <c r="B15" s="2">
+        <v>442</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C773873A-96F4-49C9-8EF8-2AFABAE87B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9E6C2-AEAC-4AFF-98F6-10EC20D62387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">Optimal Solution is iteration and logic </t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>I will write after understanding it okk fully</t>
   </si>
 </sst>
 </file>
@@ -561,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,6 +865,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>45845</v>
+      </c>
+      <c r="B16" s="2">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B9E6C2-AEAC-4AFF-98F6-10EC20D62387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>I will write after understanding it okk fully</t>
+  </si>
+  <si>
+    <t>Merged Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Two pointer concept used </t>
   </si>
 </sst>
 </file>
@@ -567,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,6 +891,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>45876</v>
+      </c>
+      <c r="B17" s="2">
+        <v>88</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8909771D-B944-4E9C-95A7-C786957C90E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Two pointer concept used </t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency of char concept used </t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,6 +917,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>45907</v>
+      </c>
+      <c r="B18" s="2">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8909771D-B944-4E9C-95A7-C786957C90E8}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C981E03-CD57-4D96-99D5-C2D38A407E13}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t xml:space="preserve">Frequency of char concept used </t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concept of Counter and little bit logic is used </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in tcs , infosys </t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,6 +946,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>45937</v>
+      </c>
+      <c r="B19" s="2">
+        <v>242</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{D93CBA38-92F3-4D75-A7FF-F8EBF0324642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C981E03-CD57-4D96-99D5-C2D38A407E13}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23524D22-AAA6-448C-B911-D5A033726BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t xml:space="preserve">asked in tcs , infosys </t>
+  </si>
+  <si>
+    <t>Longest Substring without repeating character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in various companies please practice hard </t>
+  </si>
+  <si>
+    <t>Concept used Sliding window + Hashmap</t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,6 +975,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>45968</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23524D22-AAA6-448C-B911-D5A033726BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{23524D22-AAA6-448C-B911-D5A033726BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455D758B-4801-4748-8F4A-EDB6AF9BA9D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -193,13 +193,19 @@
   </si>
   <si>
     <t>Concept used Sliding window + Hashmap</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +221,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF25454"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -260,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,12 +302,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF25454"/>
+      <color rgb="FFFAD0D0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -597,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +1023,28 @@
         <v>54</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>45998</v>
+      </c>
+      <c r="B21" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{23524D22-AAA6-448C-B911-D5A033726BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455D758B-4801-4748-8F4A-EDB6AF9BA9D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>13/7/2025</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>Pattern Used: Digit-by-Digit Simulation</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,6 +1052,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB55816-A7E1-4CD7-A192-94BCF2B13662}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>Pattern Used: Digit-by-Digit Simulation</t>
+  </si>
+  <si>
+    <t>14/7/2025</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis</t>
+  </si>
+  <si>
+    <t>Pattern Used: Stack-Based Matching</t>
+  </si>
+  <si>
+    <t>Just practice this for interviews aksed in top MNC</t>
   </si>
 </sst>
 </file>
@@ -634,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1072,6 +1084,26 @@
         <v>6</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB55816-A7E1-4CD7-A192-94BCF2B13662}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067AB42F-F6F4-4605-82E9-C8759E669266}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Just practice this for interviews aksed in top MNC</t>
+  </si>
+  <si>
+    <t>15/7/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Greater Element I </t>
+  </si>
+  <si>
+    <t>Pattern Used : Stack + HashMap</t>
   </si>
 </sst>
 </file>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,6 +1113,26 @@
         <v>64</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2">
+        <v>496</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{3589CD5B-930E-41BF-AC56-984EAA0ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067AB42F-F6F4-4605-82E9-C8759E669266}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D492F-13D6-4B32-8B13-3B77836874CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Pattern Used : Stack + HashMap</t>
+  </si>
+  <si>
+    <t>16/7/2025</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Pattern Used : HashMap + Doubly LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in Amazon and some MNC nowadays </t>
   </si>
 </sst>
 </file>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,6 +1145,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2">
+        <v>146</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D492F-13D6-4B32-8B13-3B77836874CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t xml:space="preserve">asked in Amazon and some MNC nowadays </t>
+  </si>
+  <si>
+    <t>17/7/2025</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,6 +1171,26 @@
         <v>71</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2">
+        <v>155</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA123C2-C483-4C7F-AF6C-9525A8EB3208}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stack</t>
+  </si>
+  <si>
+    <t>18/7/2025</t>
+  </si>
+  <si>
+    <t>Pattern Used :Two Stack Lazy Transfer</t>
   </si>
 </sst>
 </file>
@@ -673,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1191,6 +1200,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2">
+        <v>232</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA123C2-C483-4C7F-AF6C-9525A8EB3208}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C0A63F-BAF4-4983-B97F-6E0D6A1B724B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Pattern Used :Two Stack Lazy Transfer</t>
+  </si>
+  <si>
+    <t>Design HashMap</t>
+  </si>
+  <si>
+    <t>Pattern Used : Modulo Hashing okk</t>
+  </si>
+  <si>
+    <t>19/7/2025</t>
   </si>
 </sst>
 </file>
@@ -682,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,6 +1229,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2">
+        <v>706</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C0A63F-BAF4-4983-B97F-6E0D6A1B724B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D194C-AA63-4A29-934D-7736D777C96D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>19/7/2025</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Pattern Used : Two Pointers</t>
+  </si>
+  <si>
+    <t>20/7/2025</t>
   </si>
 </sst>
 </file>
@@ -691,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,6 +1258,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2">
+        <v>349</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{065D194C-AA63-4A29-934D-7736D777C96D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FE1E0E-DF8F-4328-BE9D-91FB5D47CAB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>20/7/2025</t>
+  </si>
+  <si>
+    <t>Pattern Used : Hashing + Bucket Sort</t>
+  </si>
+  <si>
+    <t>asked in companies frequently so keep in mind</t>
+  </si>
+  <si>
+    <t>21/7/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top K frequent Elements </t>
   </si>
 </sst>
 </file>
@@ -700,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,6 +1290,26 @@
         <v>54</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2">
+        <v>347</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{6B57B9CD-66F2-4630-BE35-232F534259E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23FE1E0E-DF8F-4328-BE9D-91FB5D47CAB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25794F7B-C9BC-4690-B414-FAB7E1288A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t xml:space="preserve">Top K frequent Elements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Substring with At Most Two Distinct Characters </t>
+  </si>
+  <si>
+    <t>22/7/2025</t>
+  </si>
+  <si>
+    <t>Pattern Used :Slinding Window + HashMap</t>
   </si>
 </sst>
 </file>
@@ -366,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +399,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -712,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,6 +1322,26 @@
         <v>84</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="2">
+        <v>159</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25794F7B-C9BC-4690-B414-FAB7E1288A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{25794F7B-C9BC-4690-B414-FAB7E1288A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4908CCC-1630-4A00-91BF-FC6817F94203}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -162,9 +162,6 @@
     <t>Set Matrix Zeroes</t>
   </si>
   <si>
-    <t>I will write after understanding it okk fully</t>
-  </si>
-  <si>
     <t>Merged Sorted Array</t>
   </si>
   <si>
@@ -295,6 +292,21 @@
   </si>
   <si>
     <t>Pattern Used :Slinding Window + HashMap</t>
+  </si>
+  <si>
+    <t>23/7/2025</t>
+  </si>
+  <si>
+    <t>Ransome Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Used : Frequency Counting Pattern </t>
+  </si>
+  <si>
+    <t>asked in amazon and adobe</t>
+  </si>
+  <si>
+    <t>I will write after understanding it okk fully-matrix scanning concept</t>
   </si>
 </sst>
 </file>
@@ -375,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,9 +411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1045,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>41</v>
@@ -1050,13 +1059,13 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>41</v>
@@ -1070,13 +1079,13 @@
         <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>41</v>
@@ -1090,16 +1099,16 @@
         <v>242</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1110,16 +1119,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1130,33 +1139,33 @@
         <v>76</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2">
         <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
@@ -1164,182 +1173,202 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2">
         <v>496</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="2">
         <v>146</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2">
         <v>155</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2">
         <v>232</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2">
         <v>706</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2">
         <v>349</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2">
         <v>347</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
         <v>159</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>87</v>
+      <c r="C31" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>54</v>
+      <c r="B32" s="2">
+        <v>383</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{25794F7B-C9BC-4690-B414-FAB7E1288A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4908CCC-1630-4A00-91BF-FC6817F94203}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -307,6 +307,18 @@
   </si>
   <si>
     <t>I will write after understanding it okk fully-matrix scanning concept</t>
+  </si>
+  <si>
+    <t>Pattern Used : Hashing + Set for Sequence Building</t>
+  </si>
+  <si>
+    <t>often seen in FAANG Interviews  need redo okk</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>24/7/2023</t>
   </si>
 </sst>
 </file>
@@ -733,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1371,6 +1383,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2">
+        <v>128</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85E7BEAC-068E-4009-B46C-F922C8B4DA54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>24/7/2023</t>
+  </si>
+  <si>
+    <t>25/7/2025</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Pattern : Iterative Inorder reversal using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in FAANG and tier-1 companies </t>
   </si>
 </sst>
 </file>
@@ -745,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,6 +1415,26 @@
         <v>95</v>
       </c>
     </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="2">
+        <v>94</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85E7BEAC-068E-4009-B46C-F922C8B4DA54}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{030665D1-19A0-4182-A7FE-0849327B490F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -331,6 +331,18 @@
   </si>
   <si>
     <t xml:space="preserve">asked in FAANG and tier-1 companies </t>
+  </si>
+  <si>
+    <t>26/7/2025</t>
+  </si>
+  <si>
+    <t>Daily Temperature</t>
+  </si>
+  <si>
+    <t>Pattern : Monotonic Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in product based and FAANG Companies </t>
   </si>
 </sst>
 </file>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,6 +1447,26 @@
         <v>101</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2">
+        <v>739</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{030665D1-19A0-4182-A7FE-0849327B490F}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AE5422-6D0F-4988-94E5-238D321371EF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t xml:space="preserve">asked in product based and FAANG Companies </t>
+  </si>
+  <si>
+    <t>27/7/2025</t>
+  </si>
+  <si>
+    <t>Remove duplicates from sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in top product based companies litreally </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern : Two Pointer Approach </t>
   </si>
 </sst>
 </file>
@@ -769,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,6 +1479,26 @@
         <v>105</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2">
+        <v>83</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7AE5422-6D0F-4988-94E5-238D321371EF}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFFF3A8-D738-4EE5-B45D-68AC9374A675}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern : Two Pointer Approach </t>
+  </si>
+  <si>
+    <t>28/7/2025</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Pattern: Sliding Window + Monotonic Queue</t>
   </si>
 </sst>
 </file>
@@ -781,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,6 +1508,26 @@
         <v>108</v>
       </c>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2">
+        <v>239</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{5210E6F3-284D-4B54-9C6B-62EED98BE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFFF3A8-D738-4EE5-B45D-68AC9374A675}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31666EF-8298-4E9F-9C63-A372E738AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -364,6 +364,18 @@
   </si>
   <si>
     <t>Pattern: Sliding Window + Monotonic Queue</t>
+  </si>
+  <si>
+    <t>29/7/2025</t>
+  </si>
+  <si>
+    <t>Pattern: Priority Queue(Min Heap)</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>especially asked in FAANG and top-tier product companies</t>
   </si>
 </sst>
 </file>
@@ -790,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,6 +1540,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="2">
+        <v>703</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31666EF-8298-4E9F-9C63-A372E738AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA259F22-E889-4E98-8B55-F5C8ACA77BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t>especially asked in FAANG and top-tier product companies</t>
+  </si>
+  <si>
+    <t>30/7/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decode Strings </t>
+  </si>
+  <si>
+    <t>Pattern : Stack + List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in interviews not known which company but </t>
   </si>
 </sst>
 </file>
@@ -802,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,6 +1572,26 @@
         <v>116</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="2">
+        <v>394</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA259F22-E889-4E98-8B55-F5C8ACA77BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E49BE-502C-4AF0-BA41-D05F93240829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t xml:space="preserve">asked in interviews not known which company but </t>
+  </si>
+  <si>
+    <t>31/7/2025</t>
+  </si>
+  <si>
+    <t>Pattern : Stack Based Operation</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
   </si>
 </sst>
 </file>
@@ -814,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,6 +1601,26 @@
         <v>120</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="2">
+        <v>150</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17E49BE-502C-4AF0-BA41-D05F93240829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F17E49BE-502C-4AF0-BA41-D05F93240829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C834EAF-3BB3-4874-BAEE-1E4454C40D60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>Pattern : Running Variables + Last Value Tracking</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">never asked in interview just redo okk </t>
   </si>
 </sst>
 </file>
@@ -823,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1621,6 +1630,26 @@
         <v>101</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>45665</v>
+      </c>
+      <c r="B41" s="2">
+        <v>227</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F17E49BE-502C-4AF0-BA41-D05F93240829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C834EAF-3BB3-4874-BAEE-1E4454C40D60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBD436-378D-4E3F-9BA3-E72412E7FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t xml:space="preserve">never asked in interview just redo okk </t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern : Single Queue + Rotation Logic  </t>
   </si>
 </sst>
 </file>
@@ -832,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,6 +1656,26 @@
         <v>126</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>45696</v>
+      </c>
+      <c r="B42" s="2">
+        <v>225</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FBD436-378D-4E3F-9BA3-E72412E7FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern : Single Queue + Rotation Logic  </t>
+  </si>
+  <si>
+    <t>Reverse LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern : LinkedList + Two Pointer </t>
+  </si>
+  <si>
+    <t>asked in interviews prepare well</t>
   </si>
 </sst>
 </file>
@@ -838,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,6 +1685,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>45724</v>
+      </c>
+      <c r="B43" s="2">
+        <v>206</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20429CD-0F22-4CD1-B795-B97232316E1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>asked in interviews prepare well</t>
+  </si>
+  <si>
+    <t>asked in interviews practice well</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted List</t>
   </si>
 </sst>
 </file>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,6 +1711,26 @@
         <v>131</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>45755</v>
+      </c>
+      <c r="B44" s="2">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20429CD-0F22-4CD1-B795-B97232316E1C}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D1F246-A68D-4F10-96A3-FD2CCE894A88}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>Merge Two Sorted List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked List Cycle </t>
+  </si>
+  <si>
+    <t>Pattern : Two Pointer (Fast and slow/Hare and tortoise)</t>
+  </si>
+  <si>
+    <t>asked mostly redo well</t>
   </si>
 </sst>
 </file>
@@ -853,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,6 +1740,26 @@
         <v>132</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>45785</v>
+      </c>
+      <c r="B45" s="2">
+        <v>141</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{B9E8389E-4EAE-4CE0-9A38-6A9709A74230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3D1F246-A68D-4F10-96A3-FD2CCE894A88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962245B-B12A-46A6-A418-D82BD783B52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>asked mostly redo well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Nth Node from the End of the List </t>
+  </si>
+  <si>
+    <t>Pattern :Fast and Slow Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in many interviews practice hard </t>
   </si>
 </sst>
 </file>
@@ -862,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1760,6 +1769,26 @@
         <v>136</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>45816</v>
+      </c>
+      <c r="B46" s="2">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962245B-B12A-46A6-A418-D82BD783B52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3AAFEC-6847-4B87-B40B-C73D1F55D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t xml:space="preserve">asked in many interviews practice hard </t>
+  </si>
+  <si>
+    <t>Middle of the LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in interviews </t>
   </si>
 </sst>
 </file>
@@ -871,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,6 +1795,26 @@
         <v>139</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>45846</v>
+      </c>
+      <c r="B47" s="2">
+        <v>876</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3AAFEC-6847-4B87-B40B-C73D1F55D2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE479E-8DC0-4D52-92F9-EB2172533191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -451,6 +451,24 @@
   </si>
   <si>
     <t xml:space="preserve">asked in interviews </t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Pattern : LinkedList + Fast and Slow Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in various interviews practice harder </t>
+  </si>
+  <si>
+    <t>Pattern : Single Pass Digit Addition</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sometimes ask not sure </t>
   </si>
 </sst>
 </file>
@@ -877,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1815,6 +1833,46 @@
         <v>141</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>45877</v>
+      </c>
+      <c r="B48" s="2">
+        <v>234</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>45908</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE479E-8DC0-4D52-92F9-EB2172533191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{CDAE479E-8DC0-4D52-92F9-EB2172533191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84ABD978-A235-4EEC-8392-DCDE59B78D1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t xml:space="preserve">sometimes ask not sure </t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Pattern :Length -&gt; Modulo -&gt; Circular -&gt; break Pattern</t>
   </si>
 </sst>
 </file>
@@ -895,9 +901,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -1873,6 +1879,26 @@
         <v>147</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>45938</v>
+      </c>
+      <c r="B50" s="2">
+        <v>61</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{CDAE479E-8DC0-4D52-92F9-EB2172533191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84ABD978-A235-4EEC-8392-DCDE59B78D1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>Pattern :Length -&gt; Modulo -&gt; Circular -&gt; break Pattern</t>
+  </si>
+  <si>
+    <t>Pattern : Weaving , InterLeaving Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in product based mostly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy List with Random Pointer </t>
   </si>
 </sst>
 </file>
@@ -901,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,6 +1908,26 @@
         <v>105</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B51" s="2">
+        <v>138</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F958779-36DE-406B-A4C9-F2C7EE773322}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -484,6 +484,15 @@
   </si>
   <si>
     <t xml:space="preserve">Copy List with Random Pointer </t>
+  </si>
+  <si>
+    <t>Pattern : Iterative with Stack</t>
+  </si>
+  <si>
+    <t>Flatten a Multilevel Doubly LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amazon,google and boomerang like companies this question is asked </t>
   </si>
 </sst>
 </file>
@@ -910,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,6 +1937,26 @@
         <v>151</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>45999</v>
+      </c>
+      <c r="B52" s="2">
+        <v>430</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F958779-36DE-406B-A4C9-F2C7EE773322}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7A14C5-FA63-4833-A237-8F64AEDA7ECA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="160">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t xml:space="preserve">amazon,google and boomerang like companies this question is asked </t>
+  </si>
+  <si>
+    <t>13/8/2025</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in K- Group</t>
+  </si>
+  <si>
+    <t>Pattern : In place pointer manipulation</t>
+  </si>
+  <si>
+    <t>asked in amazon ,google,Microsoft,Startups too</t>
   </si>
 </sst>
 </file>
@@ -919,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,6 +1969,26 @@
         <v>155</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA7A14C5-FA63-4833-A237-8F64AEDA7ECA}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D7C088-A1EB-4232-9E7B-47D5F6F7F03E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>asked in amazon ,google,Microsoft,Startups too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clumsy Factorial </t>
+  </si>
+  <si>
+    <t>17/8/2025</t>
+  </si>
+  <si>
+    <t>Pattern : modulo-4-cycle</t>
   </si>
 </sst>
 </file>
@@ -931,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,6 +1998,26 @@
         <v>159</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D7C088-A1EB-4232-9E7B-47D5F6F7F03E}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE00C7D-3682-4889-BF97-C3FAD7A701A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -514,6 +514,15 @@
   </si>
   <si>
     <t>Pattern : modulo-4-cycle</t>
+  </si>
+  <si>
+    <t>18/8/2025</t>
+  </si>
+  <si>
+    <t>Generate Parenthesis</t>
+  </si>
+  <si>
+    <t>Pattern : Backtracking</t>
   </si>
 </sst>
 </file>
@@ -940,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,6 +2027,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2">
+        <v>22</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{7A954649-3FD6-46A9-A77E-3BA3F2D96A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE00C7D-3682-4889-BF97-C3FAD7A701A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428B54A-163C-480D-877A-E35A93848326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -523,6 +523,12 @@
   </si>
   <si>
     <t>Pattern : Backtracking</t>
+  </si>
+  <si>
+    <t>19/8/2025</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
   </si>
 </sst>
 </file>
@@ -949,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,6 +2053,26 @@
         <v>144</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2">
+        <v>39</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0428B54A-163C-480D-877A-E35A93848326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0065594-B5BF-4389-9927-1B1A2D6AE4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Pattern : Bitwise Stimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked in big mnc companies </t>
+  </si>
+  <si>
+    <t>20/8/2025</t>
+  </si>
+  <si>
+    <t>Tower of Hanoi</t>
   </si>
 </sst>
 </file>
@@ -955,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="C41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,6 +2085,26 @@
         <v>144</v>
       </c>
     </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2">
+        <v>169</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0065594-B5BF-4389-9927-1B1A2D6AE4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EC971-D28F-4459-9DDA-E56B42929A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -541,6 +541,18 @@
   </si>
   <si>
     <t>Tower of Hanoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern : Dummy List + Two Pointer Partitioning </t>
+  </si>
+  <si>
+    <t>21/8/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning List </t>
+  </si>
+  <si>
+    <t>top firm asking this question okk</t>
   </si>
 </sst>
 </file>
@@ -967,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2105,6 +2117,26 @@
         <v>169</v>
       </c>
     </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="2">
+        <v>86</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19EC971-D28F-4459-9DDA-E56B42929A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF633C5-FE2B-4536-B69D-C2C776361F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>top firm asking this question okk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern : Design Simulation Pattern </t>
+  </si>
+  <si>
+    <t>22/8/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Browser History </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked not much but asked </t>
   </si>
 </sst>
 </file>
@@ -979,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2137,6 +2149,26 @@
         <v>175</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1472</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF633C5-FE2B-4536-B69D-C2C776361F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2C3E3-E49C-4C3A-957A-9D52F6032B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="187">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -565,6 +565,27 @@
   </si>
   <si>
     <t xml:space="preserve">asked not much but asked </t>
+  </si>
+  <si>
+    <t>23/8/2025</t>
+  </si>
+  <si>
+    <t>LinkedList in Binary Tree</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>24/8/2025</t>
+  </si>
+  <si>
+    <t>Pattern I don’t know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not asked that much </t>
+  </si>
+  <si>
+    <t>Pattern : finding,middle,reversing</t>
   </si>
 </sst>
 </file>
@@ -991,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2169,6 +2190,46 @@
         <v>179</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1367</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="2">
+        <v>143</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F2C3E3-E49C-4C3A-957A-9D52F6032B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{20F2C3E3-E49C-4C3A-957A-9D52F6032B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189C4808-B138-4B05-B75F-5908B7C7C268}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>Pattern : finding,middle,reversing</t>
+  </si>
+  <si>
+    <t>Maximum Twin Sum of LinkedList</t>
+  </si>
+  <si>
+    <t>25/8/2025</t>
+  </si>
+  <si>
+    <t>Pattern : LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked everytime okk </t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,6 +2242,26 @@
         <v>141</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2130</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{20F2C3E3-E49C-4C3A-957A-9D52F6032B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189C4808-B138-4B05-B75F-5908B7C7C268}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="195">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -598,6 +598,18 @@
   </si>
   <si>
     <t xml:space="preserve">asked everytime okk </t>
+  </si>
+  <si>
+    <t>26/8/2025</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>pattern is tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked sometimes </t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,6 +2274,26 @@
         <v>190</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="2">
+        <v>226</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E901DC-1F24-4E36-9C5D-67DDDB0C9A8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -610,6 +610,15 @@
   </si>
   <si>
     <t xml:space="preserve">asked sometimes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree Level Order Traversal </t>
+  </si>
+  <si>
+    <t>28/8/2025</t>
+  </si>
+  <si>
+    <t>Tree Pattern</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2294,6 +2303,26 @@
         <v>194</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="2">
+        <v>102</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E901DC-1F24-4E36-9C5D-67DDDB0C9A8D}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58ACB2C7-7FD4-47BB-B84A-25D9D8905590}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -619,6 +619,18 @@
   </si>
   <si>
     <t>Tree Pattern</t>
+  </si>
+  <si>
+    <t>29/8/2025</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Tree Pattern to follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asked commonly </t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,6 +2335,26 @@
         <v>136</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="2">
+        <v>104</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58ACB2C7-7FD4-47BB-B84A-25D9D8905590}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31299E7-C52D-454B-925D-68634F66A8AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="204">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t xml:space="preserve">Asked commonly </t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>30/8/2025</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,6 +2361,26 @@
         <v>201</v>
       </c>
     </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="2">
+        <v>98</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{6649311B-106C-4FF1-8FF2-17E089706083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B31299E7-C52D-454B-925D-68634F66A8AB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4168A37-5242-4962-ACFD-CD819C7F113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="207">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -637,6 +637,15 @@
   </si>
   <si>
     <t>30/8/2025</t>
+  </si>
+  <si>
+    <t>31/8/2025</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,6 +2390,46 @@
         <v>144</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="2">
+        <v>101</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B68" s="2">
+        <v>543</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/100Days_of_Python.xlsx
+++ b/100Days_of_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\OneDrive\Desktop\karne hee\Python_100DaysofCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d01c228b88324d2/Desktop/karne hee/Python_100DaysofCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4168A37-5242-4962-ACFD-CD819C7F113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B4168A37-5242-4962-ACFD-CD819C7F113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43131A67-7206-49C4-B162-EA4C3BF09AA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9D338D83-A10A-40B4-8766-8D9D118F24EE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="208">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEA4670-24F6-4A70-A464-2EB69FB9A46F}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2430,6 +2433,26 @@
         <v>144</v>
       </c>
     </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>45697</v>
+      </c>
+      <c r="B69" s="2">
+        <v>236</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
